--- a/17. Análise dos Eventos para cada Cenário.xlsx
+++ b/17. Análise dos Eventos para cada Cenário.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\brend\OneDrive\Área de Trabalho\Faculdade Impacta\3 Semestre\3 - engenharia de requisitos\OPE_RequestSolved-master\OPE_RequestSolved-master\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\brend\Downloads\OPE_RequestSolved-master (1)\OPE_RequestSolved-master\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B54058E-01D8-411F-BCD0-FA9674D9D030}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{676D3723-ED4F-4EFB-AFEE-E0362A4FB829}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{C7A16F1A-A0F8-4F8A-835F-063FADE20767}"/>
   </bookViews>
@@ -68,24 +68,12 @@
     <t>Extemporâneo</t>
   </si>
   <si>
-    <t>Cliente efetua compra</t>
-  </si>
-  <si>
-    <t>Cliente efetua pagamento em dinheiro</t>
-  </si>
-  <si>
-    <t>Cliente efetua pagamento em cartão</t>
-  </si>
-  <si>
     <t>FB</t>
   </si>
   <si>
     <t>FA</t>
   </si>
   <si>
-    <t>Provedor do cartão envia resposta do pagamento</t>
-  </si>
-  <si>
     <t>Realizar compra</t>
   </si>
   <si>
@@ -96,6 +84,18 @@
   </si>
   <si>
     <t>x(3)</t>
+  </si>
+  <si>
+    <t>Efetuar a venda do produto</t>
+  </si>
+  <si>
+    <t>Receber o pagamento em dinheiro</t>
+  </si>
+  <si>
+    <t>Receber o pagamento em cartão de crédito/debito</t>
+  </si>
+  <si>
+    <t>Tratar a resposta da operação realizada</t>
   </si>
 </sst>
 </file>
@@ -222,13 +222,22 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90"/>
     </xf>
@@ -243,15 +252,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -570,7 +570,7 @@
   <dimension ref="A1:K6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -579,7 +579,7 @@
     <col min="2" max="2" width="3.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8.85546875" customWidth="1"/>
     <col min="4" max="4" width="3.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="43.28515625" customWidth="1"/>
+    <col min="5" max="5" width="46.85546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="13.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="8.28515625" style="1" bestFit="1" customWidth="1"/>
@@ -589,134 +589,134 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="4"/>
-      <c r="B1" s="4"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3" t="s">
+      <c r="A1" s="3"/>
+      <c r="B1" s="3"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3" t="s">
+      <c r="G1" s="8"/>
+      <c r="H1" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="5"/>
+      <c r="I1" s="8"/>
+      <c r="J1" s="8"/>
+      <c r="K1" s="4"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
       <c r="D2" s="2" t="s">
         <v>1</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="G2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="H2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="5" t="s">
+      <c r="I2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="5" t="s">
+      <c r="J2" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="K2" s="5" t="s">
+      <c r="K2" s="4" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="11"/>
+      <c r="D3" s="3">
+        <v>1</v>
+      </c>
+      <c r="E3" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="F3" s="5"/>
+      <c r="G3" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="8"/>
-      <c r="D3" s="4">
-        <v>1</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F3" s="11"/>
-      <c r="G3" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="H3" s="12"/>
-      <c r="I3" s="12"/>
-      <c r="J3" s="12"/>
-      <c r="K3" s="13"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="6"/>
+      <c r="J3" s="6"/>
+      <c r="K3" s="7"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="6"/>
-      <c r="B4" s="9"/>
-      <c r="C4" s="10"/>
-      <c r="D4" s="4">
+      <c r="A4" s="9"/>
+      <c r="B4" s="12"/>
+      <c r="C4" s="13"/>
+      <c r="D4" s="3">
         <v>2</v>
       </c>
-      <c r="E4" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F4" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="G4" s="11"/>
-      <c r="H4" s="12"/>
-      <c r="I4" s="12"/>
-      <c r="J4" s="12"/>
-      <c r="K4" s="13"/>
+      <c r="E4" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G4" s="5"/>
+      <c r="H4" s="6"/>
+      <c r="I4" s="6"/>
+      <c r="J4" s="6"/>
+      <c r="K4" s="7"/>
     </row>
     <row r="5" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="6"/>
-      <c r="B5" s="7" t="s">
+      <c r="A5" s="9"/>
+      <c r="B5" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="11"/>
+      <c r="D5" s="3">
+        <v>3</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F5" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="8"/>
-      <c r="D5" s="4">
-        <v>3</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F5" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="G5" s="11"/>
-      <c r="H5" s="12"/>
-      <c r="I5" s="12"/>
-      <c r="J5" s="12"/>
-      <c r="K5" s="13"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="6"/>
+      <c r="I5" s="6"/>
+      <c r="J5" s="6"/>
+      <c r="K5" s="7"/>
     </row>
     <row r="6" spans="1:11" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="6"/>
-      <c r="B6" s="9"/>
-      <c r="C6" s="10"/>
-      <c r="D6" s="4">
+      <c r="A6" s="9"/>
+      <c r="B6" s="12"/>
+      <c r="C6" s="13"/>
+      <c r="D6" s="3">
         <v>4</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="E6" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F6" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F6" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="G6" s="11"/>
-      <c r="H6" s="12"/>
-      <c r="I6" s="12"/>
-      <c r="J6" s="12"/>
-      <c r="K6" s="13"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="6"/>
+      <c r="I6" s="6"/>
+      <c r="J6" s="6"/>
+      <c r="K6" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="7">

--- a/17. Análise dos Eventos para cada Cenário.xlsx
+++ b/17. Análise dos Eventos para cada Cenário.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\brend\Downloads\OPE_RequestSolved-master (1)\OPE_RequestSolved-master\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{676D3723-ED4F-4EFB-AFEE-E0362A4FB829}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B04C1437-9CB5-456C-BCF3-F0B21B894E9F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{C7A16F1A-A0F8-4F8A-835F-063FADE20767}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="30">
   <si>
     <t>Capacidades</t>
   </si>
@@ -74,9 +74,6 @@
     <t>FA</t>
   </si>
   <si>
-    <t>Realizar compra</t>
-  </si>
-  <si>
     <t>x</t>
   </si>
   <si>
@@ -96,6 +93,36 @@
   </si>
   <si>
     <t>Tratar a resposta da operação realizada</t>
+  </si>
+  <si>
+    <t>Receber produto</t>
+  </si>
+  <si>
+    <t>Efetuar a troca do produto</t>
+  </si>
+  <si>
+    <t>Receber diferença de valor em dinheiro</t>
+  </si>
+  <si>
+    <t>Receber diferença de valor em cartão de crédito/débito</t>
+  </si>
+  <si>
+    <t>Efetuar troca do produto</t>
+  </si>
+  <si>
+    <t>x(7)</t>
+  </si>
+  <si>
+    <t>x(9)</t>
+  </si>
+  <si>
+    <t>x(5)</t>
+  </si>
+  <si>
+    <t>x(6)</t>
+  </si>
+  <si>
+    <t>Verificar comprovante da venda</t>
   </si>
 </sst>
 </file>
@@ -145,7 +172,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -168,90 +195,47 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -567,10 +551,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40FA13E8-1950-4020-81EE-F13AFF57B6A6}">
-  <dimension ref="A1:K6"/>
+  <dimension ref="A1:K12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -578,8 +562,8 @@
     <col min="1" max="1" width="8.140625" customWidth="1"/>
     <col min="2" max="2" width="3.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8.85546875" customWidth="1"/>
-    <col min="4" max="4" width="3.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="46.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="3.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="51.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="13.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="8.28515625" style="1" bestFit="1" customWidth="1"/>
@@ -588,138 +572,261 @@
     <col min="11" max="11" width="14.140625" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="3"/>
-      <c r="B1" s="3"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8" t="s">
+    <row r="1" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="4"/>
+      <c r="B1" s="4"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8" t="s">
+      <c r="G1" s="5"/>
+      <c r="H1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="8"/>
-      <c r="J1" s="8"/>
-      <c r="K1" s="4"/>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="8" t="s">
+      <c r="I1" s="5"/>
+      <c r="J1" s="5"/>
+      <c r="K1" s="6"/>
+    </row>
+    <row r="2" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="2" t="s">
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G2" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="H2" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="I2" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="4" t="s">
+      <c r="J2" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="K2" s="4" t="s">
+      <c r="K2" s="6" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="9" t="s">
+    <row r="3" spans="1:11" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="2"/>
+      <c r="D3" s="9">
+        <v>1</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" s="10"/>
+      <c r="G3" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="H3" s="11"/>
+      <c r="I3" s="11"/>
+      <c r="J3" s="11"/>
+      <c r="K3" s="12"/>
+    </row>
+    <row r="4" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="3"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="9">
+        <v>2</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" s="10"/>
+      <c r="H4" s="11"/>
+      <c r="I4" s="11"/>
+      <c r="J4" s="11"/>
+      <c r="K4" s="12"/>
+    </row>
+    <row r="5" spans="1:11" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="3"/>
+      <c r="B5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="2"/>
+      <c r="D5" s="9">
+        <v>3</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="G5" s="10"/>
+      <c r="H5" s="11"/>
+      <c r="I5" s="11"/>
+      <c r="J5" s="11"/>
+      <c r="K5" s="12"/>
+    </row>
+    <row r="6" spans="1:11" s="7" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="3"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="9">
+        <v>4</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F6" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="G6" s="10"/>
+      <c r="H6" s="11"/>
+      <c r="I6" s="11"/>
+      <c r="J6" s="11"/>
+      <c r="K6" s="12"/>
+    </row>
+    <row r="7" spans="1:11" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="11"/>
-      <c r="D3" s="3">
-        <v>1</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="H3" s="6"/>
-      <c r="I3" s="6"/>
-      <c r="J3" s="6"/>
-      <c r="K3" s="7"/>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="9"/>
-      <c r="B4" s="12"/>
-      <c r="C4" s="13"/>
-      <c r="D4" s="3">
-        <v>2</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="G4" s="5"/>
-      <c r="H4" s="6"/>
-      <c r="I4" s="6"/>
-      <c r="J4" s="6"/>
-      <c r="K4" s="7"/>
-    </row>
-    <row r="5" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="9"/>
-      <c r="B5" s="10" t="s">
+      <c r="C7" s="2"/>
+      <c r="D7" s="9">
+        <v>5</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="F7" s="10"/>
+      <c r="G7" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="H7" s="11"/>
+      <c r="I7" s="11"/>
+      <c r="J7" s="11"/>
+      <c r="K7" s="12"/>
+    </row>
+    <row r="8" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="3"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="9">
+        <v>6</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F8" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="G8" s="10"/>
+      <c r="H8" s="11"/>
+      <c r="I8" s="11"/>
+      <c r="J8" s="11"/>
+      <c r="K8" s="12"/>
+    </row>
+    <row r="9" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="3"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="9">
+        <v>7</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F9" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="G9" s="10"/>
+      <c r="H9" s="11"/>
+      <c r="I9" s="11"/>
+      <c r="J9" s="11"/>
+      <c r="K9" s="12"/>
+    </row>
+    <row r="10" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="3"/>
+      <c r="B10" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="11"/>
-      <c r="D5" s="3">
-        <v>3</v>
-      </c>
-      <c r="E5" s="3" t="s">
+      <c r="C10" s="2"/>
+      <c r="D10" s="9">
+        <v>8</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F10" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="G10" s="10"/>
+      <c r="H10" s="11"/>
+      <c r="I10" s="11"/>
+      <c r="J10" s="11"/>
+      <c r="K10" s="12"/>
+    </row>
+    <row r="11" spans="1:11" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="3"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="9">
+        <v>9</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F11" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="G11" s="10"/>
+      <c r="H11" s="11"/>
+      <c r="I11" s="11"/>
+      <c r="J11" s="11"/>
+      <c r="K11" s="12"/>
+    </row>
+    <row r="12" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="3"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="9">
+        <v>10</v>
+      </c>
+      <c r="E12" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="F5" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="G5" s="5"/>
-      <c r="H5" s="6"/>
-      <c r="I5" s="6"/>
-      <c r="J5" s="6"/>
-      <c r="K5" s="7"/>
-    </row>
-    <row r="6" spans="1:11" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="9"/>
-      <c r="B6" s="12"/>
-      <c r="C6" s="13"/>
-      <c r="D6" s="3">
-        <v>4</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="G6" s="5"/>
-      <c r="H6" s="6"/>
-      <c r="I6" s="6"/>
-      <c r="J6" s="6"/>
-      <c r="K6" s="7"/>
+      <c r="F12" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="G12" s="10"/>
+      <c r="H12" s="11"/>
+      <c r="I12" s="11"/>
+      <c r="J12" s="11"/>
+      <c r="K12" s="12"/>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="10">
+    <mergeCell ref="B10:C12"/>
+    <mergeCell ref="B7:C9"/>
+    <mergeCell ref="A7:A12"/>
     <mergeCell ref="F1:G1"/>
     <mergeCell ref="H1:J1"/>
     <mergeCell ref="C1:E1"/>
